--- a/Duolingo.xlsx
+++ b/Duolingo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack Nguyen\Desktop\Japanese\Duolingo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack Nguyen\Desktop\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="176">
   <si>
     <t>人</t>
   </si>
@@ -243,8 +243,66 @@
     <t>どうも</t>
   </si>
   <si>
+    <t>ありがとう</t>
+  </si>
+  <si>
+    <t>どうもありがとう</t>
+  </si>
+  <si>
+    <t>ありがとうございます</t>
+  </si>
+  <si>
+    <t>どうもありがとうございます</t>
+  </si>
+  <si>
+    <t>ありがとうございました</t>
+  </si>
+  <si>
+    <t>どうもありがとうございました</t>
+  </si>
+  <si>
+    <t>Object Practicle を [o]</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>を</t>
+  </si>
+  <si>
+    <t>Verb</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>みず</t>
+  </si>
+  <si>
+    <t>のみます。</t>
+  </si>
+  <si>
+    <t>I drink water.</t>
+  </si>
+  <si>
+    <t>さかな</t>
+  </si>
+  <si>
+    <t>たべます。</t>
+  </si>
+  <si>
+    <t>I eat fish.</t>
+  </si>
+  <si>
     <r>
-      <t>Thanks</t>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF999999"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thanks,</t>
     </r>
     <r>
       <rPr>
@@ -253,15 +311,19 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>, used with friends.</t>
+      <t xml:space="preserve"> used with friends.</t>
     </r>
   </si>
   <si>
-    <t>ありがとう</t>
-  </si>
-  <si>
     <r>
-      <t>Thank you</t>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF999999"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thank you,</t>
     </r>
     <r>
       <rPr>
@@ -270,15 +332,19 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>, used with friends.</t>
+      <t xml:space="preserve"> used with friends.</t>
     </r>
   </si>
   <si>
-    <t>どうもありがとう</t>
-  </si>
-  <si>
     <r>
-      <t>Thank you very much</t>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF999999"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thank you very much,</t>
     </r>
     <r>
       <rPr>
@@ -287,15 +353,19 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>, used with friends.</t>
+      <t xml:space="preserve"> used with friends.</t>
     </r>
   </si>
   <si>
-    <t>ありがとうございます</t>
-  </si>
-  <si>
     <r>
-      <t>Thank you</t>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF999999"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thank you,</t>
     </r>
     <r>
       <rPr>
@@ -304,15 +374,19 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>, used with strangers, teachers, and bosses.</t>
+      <t xml:space="preserve"> used with strangers, teachers, and bosses.</t>
     </r>
   </si>
   <si>
-    <t>どうもありがとうございます</t>
-  </si>
-  <si>
     <r>
-      <t>Thank you very much</t>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF999999"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thank you very much,</t>
     </r>
     <r>
       <rPr>
@@ -321,15 +395,19 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>, used with strangers, teachers, and bosses.</t>
+      <t xml:space="preserve"> used with strangers, teachers, and bosses.</t>
     </r>
   </si>
   <si>
-    <t>ありがとうございました</t>
-  </si>
-  <si>
     <r>
-      <t>Thank you for what you did</t>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF999999"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thank you for what you did,</t>
     </r>
     <r>
       <rPr>
@@ -338,15 +416,19 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>, used with strangers, teachers, and bosses.</t>
+      <t xml:space="preserve"> used with strangers, teachers, and bosses.</t>
     </r>
   </si>
   <si>
-    <t>どうもありがとうございました</t>
-  </si>
-  <si>
     <r>
-      <t>Thank you very much for what you did</t>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF999999"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thank you very much for what you did,</t>
     </r>
     <r>
       <rPr>
@@ -355,15 +437,255 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>, used with strangers, teachers, and bosses.</t>
+      <t xml:space="preserve"> used with strangers, teachers, and bosses.</t>
     </r>
+  </si>
+  <si>
+    <t>General Pronouns</t>
+  </si>
+  <si>
+    <t>こ</t>
+  </si>
+  <si>
+    <t>そ</t>
+  </si>
+  <si>
+    <t>あ</t>
+  </si>
+  <si>
+    <t>ど</t>
+  </si>
+  <si>
+    <t>これ</t>
+  </si>
+  <si>
+    <t>それ</t>
+  </si>
+  <si>
+    <t>あれ</t>
+  </si>
+  <si>
+    <t>どれ</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>that (over there)</t>
+  </si>
+  <si>
+    <t>which</t>
+  </si>
+  <si>
+    <t>closer to the speaker</t>
+  </si>
+  <si>
+    <t>closer to the listener</t>
+  </si>
+  <si>
+    <t>far from both the speaker and listener</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>すい</t>
+  </si>
+  <si>
+    <t>食</t>
+  </si>
+  <si>
+    <t>Eat</t>
+  </si>
+  <si>
+    <t>た•べる</t>
+  </si>
+  <si>
+    <t>しょく</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>ひと•つ</t>
+  </si>
+  <si>
+    <t>いち</t>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>ふた•つ</t>
+  </si>
+  <si>
+    <t>に</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>Three</t>
+  </si>
+  <si>
+    <t>みっ•つ</t>
+  </si>
+  <si>
+    <t>さん</t>
+  </si>
+  <si>
+    <t>時</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>とき</t>
+  </si>
+  <si>
+    <t>じ</t>
+  </si>
+  <si>
+    <t>今</t>
+  </si>
+  <si>
+    <t>Now</t>
+  </si>
+  <si>
+    <t>いま</t>
+  </si>
+  <si>
+    <t>こん</t>
+  </si>
+  <si>
+    <t>分</t>
+  </si>
+  <si>
+    <t>Minute, Part</t>
+  </si>
+  <si>
+    <t>わ•かる</t>
+  </si>
+  <si>
+    <t>ふん、ぶん</t>
+  </si>
+  <si>
+    <t>四</t>
+  </si>
+  <si>
+    <t>Four</t>
+  </si>
+  <si>
+    <t>よん、よっ•つ</t>
+  </si>
+  <si>
+    <t>し</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>Five</t>
+  </si>
+  <si>
+    <t>いつ•つ</t>
+  </si>
+  <si>
+    <t>ご</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
+    <t>Six</t>
+  </si>
+  <si>
+    <t>むっ•つ</t>
+  </si>
+  <si>
+    <t>ろく</t>
+  </si>
+  <si>
+    <t>七</t>
+  </si>
+  <si>
+    <t>Seven</t>
+  </si>
+  <si>
+    <t>なな、なな•つ</t>
+  </si>
+  <si>
+    <t>しち</t>
+  </si>
+  <si>
+    <t>八</t>
+  </si>
+  <si>
+    <t>Eight</t>
+  </si>
+  <si>
+    <t>やっ•つ</t>
+  </si>
+  <si>
+    <t>はち</t>
+  </si>
+  <si>
+    <t>九</t>
+  </si>
+  <si>
+    <t>Nine</t>
+  </si>
+  <si>
+    <t>ここの•つ</t>
+  </si>
+  <si>
+    <t>きゅう、く</t>
+  </si>
+  <si>
+    <t>十</t>
+  </si>
+  <si>
+    <t>Ten</t>
+  </si>
+  <si>
+    <t>とお</t>
+  </si>
+  <si>
+    <t>じゅう</t>
+  </si>
+  <si>
+    <t>半</t>
+  </si>
+  <si>
+    <t>Half</t>
+  </si>
+  <si>
+    <t>なか•ば</t>
+  </si>
+  <si>
+    <t>はん</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +725,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF999999"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3C3C3C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -424,7 +759,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -456,11 +791,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFE9E9E9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFE9E9E9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFE9E9E9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDADADA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -479,6 +843,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,13 +1145,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.140625" defaultRowHeight="21.75" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -1023,6 +1410,233 @@
         <v>68</v>
       </c>
     </row>
+    <row r="22" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="20.25" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:4" ht="20.25" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:4" ht="20.25" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1031,82 +1645,233 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="77.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B6" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="B7" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B8" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="D13" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>